--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -1,55 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliterc/星球项目/智能BI/mybi-backend/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF756E6F-D024-F543-BF1B-5BFCE872F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BDA55A-8671-E143-AAC8-BFC57A6BFD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2660" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="28060" windowHeight="16920" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>小数</t>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>字符串</t>
+    <t>网站访问量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -57,9 +40,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -69,12 +52,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -82,15 +59,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="16"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,16 +106,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,47 +448,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="1" max="3" width="10.77734375" style="1"/>
+    <col min="4" max="4" width="10.77734375" style="2"/>
+    <col min="5" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A21" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>120</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>66</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44844</v>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>